--- a/Excel visualization/Ising example for presentation v1.xlsx
+++ b/Excel visualization/Ising example for presentation v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a873f7f057fbc28/Harrisburg U Summer/Meetup Presentation/Our-Talk-About-D-Wave/Our-Talk-About-D-Wave/Excel visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12213" documentId="8_{6F1A3C92-0C11-4FF1-89B5-FA9D3BD166DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0166E70C-AA98-49BC-97A8-A4C1EC1BF1B9}"/>
+  <xr:revisionPtr revIDLastSave="43403" documentId="8_{6F1A3C92-0C11-4FF1-89B5-FA9D3BD166DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBC4DC7A-82F6-43E6-A207-F42E81CCBE63}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26490" windowHeight="14040" tabRatio="725" xr2:uid="{2C76DCBD-ECAB-4B81-AE53-9630B046E1F4}"/>
+    <workbookView minimized="1" xWindow="1185" yWindow="-15120" windowWidth="26490" windowHeight="14040" tabRatio="725" activeTab="1" xr2:uid="{2C76DCBD-ECAB-4B81-AE53-9630B046E1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2 qubits" sheetId="2" r:id="rId1"/>
@@ -1287,39 +1287,39 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$5" horiz="1" max="100" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$5" horiz="1" max="100" page="10" val="32"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$7" horiz="1" max="100" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$7" horiz="1" max="100" page="10" val="85"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$9" horiz="1" max="100" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$9" horiz="1" max="100" page="10" val="68"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$11" horiz="1" max="100" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$11" horiz="1" max="100" page="10" val="41"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$13" horiz="1" max="100" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$13" horiz="1" max="100" page="10" val="83"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$6" horiz="1" max="100" page="10" val="100"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$6" horiz="1" max="100" page="10" val="37"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$8" horiz="1" max="100" page="10" val="100"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$8" horiz="1" max="100" page="10" val="59"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$10" horiz="1" max="100" page="10" val="100"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$10" horiz="1" max="100" page="10" val="25"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$12" horiz="1" max="100" page="10" val="100"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$12" horiz="1" max="100" page="10" val="69"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1347,7 +1347,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1447,7 +1447,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1497,7 +1497,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1597,7 +1597,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1647,7 +1647,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1697,7 +1697,7 @@
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1747,7 +1747,7 @@
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1792,7 +1792,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B1781D-7C82-4DA1-8ADD-BA3089D04F12}">
   <dimension ref="C1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC461414-BC1C-4F3C-A0FC-CD8ED656DB8B}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,14 +2307,14 @@
     </row>
     <row r="5" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <f>B5/100</f>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -2336,12 +2336,12 @@
     </row>
     <row r="6" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="7">
         <f>B6/100</f>
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2355,14 +2355,14 @@
     </row>
     <row r="7" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" s="11">
         <f>B7/100</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -2379,17 +2379,17 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12">
         <f>E7*ABS(C7-H7)</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7">
         <f>B8/100</f>
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -2403,14 +2403,14 @@
     </row>
     <row r="9" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="E9" s="11">
         <f>B9/100</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2432,12 +2432,12 @@
     </row>
     <row r="10" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="7">
         <f>B10/100</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2451,14 +2451,14 @@
     </row>
     <row r="11" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11" s="11">
         <f>B11/100</f>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2475,7 +2475,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12">
         <f>E11*ABS(C11-H11)</f>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>10</v>
@@ -2483,12 +2483,12 @@
     </row>
     <row r="12" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="7">
         <f>B12/100</f>
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2502,14 +2502,14 @@
     </row>
     <row r="13" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" s="11">
         <f>B13/100</f>
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2556,7 +2556,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="13">
         <f>SUM(N5:N13)</f>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="R17" s="8">
         <f>L17+N17</f>
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
